--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf11-Acvr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf11-Acvr1b.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7912223333333334</v>
+        <v>1.022883666666667</v>
       </c>
       <c r="H2">
-        <v>2.373667</v>
+        <v>3.068651</v>
       </c>
       <c r="I2">
-        <v>0.1279721785899035</v>
+        <v>0.1594660351460709</v>
       </c>
       <c r="J2">
-        <v>0.1279721785899035</v>
+        <v>0.1594660351460709</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.021200333333333</v>
+        <v>1.923239</v>
       </c>
       <c r="N2">
-        <v>12.063601</v>
+        <v>5.769717</v>
       </c>
       <c r="O2">
-        <v>0.3898019663613429</v>
+        <v>0.2340262838603868</v>
       </c>
       <c r="P2">
-        <v>0.3898019663613429</v>
+        <v>0.2340262838603868</v>
       </c>
       <c r="Q2">
-        <v>3.181663510540778</v>
+        <v>1.967249760196333</v>
       </c>
       <c r="R2">
-        <v>28.634971594867</v>
+        <v>17.705247841767</v>
       </c>
       <c r="S2">
-        <v>0.04988380685388933</v>
+        <v>0.03731924360718482</v>
       </c>
       <c r="T2">
-        <v>0.04988380685388933</v>
+        <v>0.0373192436071848</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7912223333333334</v>
+        <v>1.022883666666667</v>
       </c>
       <c r="H3">
-        <v>2.373667</v>
+        <v>3.068651</v>
       </c>
       <c r="I3">
-        <v>0.1279721785899035</v>
+        <v>0.1594660351460709</v>
       </c>
       <c r="J3">
-        <v>0.1279721785899035</v>
+        <v>0.1594660351460709</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>10.688986</v>
       </c>
       <c r="O3">
-        <v>0.3453850770768087</v>
+        <v>0.4335574295612247</v>
       </c>
       <c r="P3">
-        <v>0.3453850770768087</v>
+        <v>0.4335574295612246</v>
       </c>
       <c r="Q3">
-        <v>2.819121481295778</v>
+        <v>3.644529730876223</v>
       </c>
       <c r="R3">
-        <v>25.372093331662</v>
+        <v>32.800767577886</v>
       </c>
       <c r="S3">
-        <v>0.04419968076596095</v>
+        <v>0.06913768430025043</v>
       </c>
       <c r="T3">
-        <v>0.04419968076596095</v>
+        <v>0.06913768430025041</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7912223333333334</v>
+        <v>1.022883666666667</v>
       </c>
       <c r="H4">
-        <v>2.373667</v>
+        <v>3.068651</v>
       </c>
       <c r="I4">
-        <v>0.1279721785899035</v>
+        <v>0.1594660351460709</v>
       </c>
       <c r="J4">
-        <v>0.1279721785899035</v>
+        <v>0.1594660351460709</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>8.195437999999999</v>
       </c>
       <c r="O4">
-        <v>0.2648129565618484</v>
+        <v>0.3324162865783886</v>
       </c>
       <c r="P4">
-        <v>0.2648129565618484</v>
+        <v>0.3324162865783886</v>
       </c>
       <c r="Q4">
-        <v>2.161471192349556</v>
+        <v>2.794326557126444</v>
       </c>
       <c r="R4">
-        <v>19.453240731146</v>
+        <v>25.148939014138</v>
       </c>
       <c r="S4">
-        <v>0.03388869097005323</v>
+        <v>0.05300910723863571</v>
       </c>
       <c r="T4">
-        <v>0.03388869097005323</v>
+        <v>0.05300910723863569</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.085674</v>
       </c>
       <c r="I5">
-        <v>0.1663588128403108</v>
+        <v>0.1603506552336246</v>
       </c>
       <c r="J5">
-        <v>0.1663588128403108</v>
+        <v>0.1603506552336246</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.021200333333333</v>
+        <v>1.923239</v>
       </c>
       <c r="N5">
-        <v>12.063601</v>
+        <v>5.769717</v>
       </c>
       <c r="O5">
-        <v>0.3898019663613429</v>
+        <v>0.2340262838603868</v>
       </c>
       <c r="P5">
-        <v>0.3898019663613429</v>
+        <v>0.2340262838603868</v>
       </c>
       <c r="Q5">
-        <v>4.136037772452666</v>
+        <v>1.978162859362</v>
       </c>
       <c r="R5">
-        <v>37.224339952074</v>
+        <v>17.803465734258</v>
       </c>
       <c r="S5">
-        <v>0.06484699236669175</v>
+        <v>0.03752626795890324</v>
       </c>
       <c r="T5">
-        <v>0.06484699236669175</v>
+        <v>0.03752626795890324</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.085674</v>
       </c>
       <c r="I6">
-        <v>0.1663588128403108</v>
+        <v>0.1603506552336246</v>
       </c>
       <c r="J6">
-        <v>0.1663588128403108</v>
+        <v>0.1603506552336246</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>10.688986</v>
       </c>
       <c r="O6">
-        <v>0.3453850770768087</v>
+        <v>0.4335574295612247</v>
       </c>
       <c r="P6">
-        <v>0.3453850770768087</v>
+        <v>0.4335574295612246</v>
       </c>
       <c r="Q6">
         <v>3.664747354062667</v>
@@ -818,10 +818,10 @@
         <v>32.982726186564</v>
       </c>
       <c r="S6">
-        <v>0.05745785139525712</v>
+        <v>0.0695212179115484</v>
       </c>
       <c r="T6">
-        <v>0.05745785139525712</v>
+        <v>0.0695212179115484</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.085674</v>
       </c>
       <c r="I7">
-        <v>0.1663588128403108</v>
+        <v>0.1603506552336246</v>
       </c>
       <c r="J7">
-        <v>0.1663588128403108</v>
+        <v>0.1603506552336246</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>8.195437999999999</v>
       </c>
       <c r="O7">
-        <v>0.2648129565618484</v>
+        <v>0.3324162865783886</v>
       </c>
       <c r="P7">
-        <v>0.2648129565618484</v>
+        <v>0.3324162865783886</v>
       </c>
       <c r="Q7">
         <v>2.809827772801333</v>
@@ -880,10 +880,10 @@
         <v>25.288449955212</v>
       </c>
       <c r="S7">
-        <v>0.04405396907836189</v>
+        <v>0.05330316936317293</v>
       </c>
       <c r="T7">
-        <v>0.04405396907836189</v>
+        <v>0.05330316936317293</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>13.088964</v>
       </c>
       <c r="I8">
-        <v>0.7056690085697858</v>
+        <v>0.6801833096203046</v>
       </c>
       <c r="J8">
-        <v>0.7056690085697859</v>
+        <v>0.6801833096203045</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.021200333333333</v>
+        <v>1.923239</v>
       </c>
       <c r="N8">
-        <v>12.063601</v>
+        <v>5.769717</v>
       </c>
       <c r="O8">
-        <v>0.3898019663613429</v>
+        <v>0.2340262838603868</v>
       </c>
       <c r="P8">
-        <v>0.3898019663613429</v>
+        <v>0.2340262838603868</v>
       </c>
       <c r="Q8">
-        <v>17.54444879992933</v>
+        <v>8.391068678132001</v>
       </c>
       <c r="R8">
-        <v>157.900039199364</v>
+        <v>75.51961810318801</v>
       </c>
       <c r="S8">
-        <v>0.2750711671407618</v>
+        <v>0.1591807722942988</v>
       </c>
       <c r="T8">
-        <v>0.2750711671407619</v>
+        <v>0.1591807722942987</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>13.088964</v>
       </c>
       <c r="I9">
-        <v>0.7056690085697858</v>
+        <v>0.6801833096203046</v>
       </c>
       <c r="J9">
-        <v>0.7056690085697859</v>
+        <v>0.6801833096203045</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>10.688986</v>
       </c>
       <c r="O9">
-        <v>0.3453850770768087</v>
+        <v>0.4335574295612247</v>
       </c>
       <c r="P9">
-        <v>0.3453850770768087</v>
+        <v>0.4335574295612246</v>
       </c>
       <c r="Q9">
         <v>15.54530588338934</v>
@@ -1004,10 +1004,10 @@
         <v>139.907752950504</v>
       </c>
       <c r="S9">
-        <v>0.2437275449155906</v>
+        <v>0.2948985273494259</v>
       </c>
       <c r="T9">
-        <v>0.2437275449155906</v>
+        <v>0.2948985273494258</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>13.088964</v>
       </c>
       <c r="I10">
-        <v>0.7056690085697858</v>
+        <v>0.6801833096203046</v>
       </c>
       <c r="J10">
-        <v>0.7056690085697859</v>
+        <v>0.6801833096203045</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>8.195437999999999</v>
       </c>
       <c r="O10">
-        <v>0.2648129565618484</v>
+        <v>0.3324162865783886</v>
       </c>
       <c r="P10">
-        <v>0.2648129565618484</v>
+        <v>0.3324162865783886</v>
       </c>
       <c r="Q10">
         <v>11.91886588291467</v>
@@ -1066,10 +1066,10 @@
         <v>107.269792946232</v>
       </c>
       <c r="S10">
-        <v>0.1868702965134333</v>
+        <v>0.22610400997658</v>
       </c>
       <c r="T10">
-        <v>0.1868702965134334</v>
+        <v>0.2261040099765799</v>
       </c>
     </row>
   </sheetData>
